--- a/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/08,07,25 Ост КИ филиалы/дв 08,07,25 млрсч ост ки от Холодова.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/филиалы и опт/2025/07,25/08,07,25 Ост КИ филиалы/дв 08,07,25 млрсч ост ки от Холодова.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\08,07,25 Ост КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\филиалы и опт\2025\07,25\08,07,25 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A167EC-D30A-45E5-AF1E-7FC470BCD3B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27154DC5-A4B2-4C6B-90A2-C9B2CA71625B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1058,7 +1058,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
